--- a/5qemeister/scripts.xlsx
+++ b/5qemeister/scripts.xlsx
@@ -31,7 +31,7 @@
     <t>Exp</t>
   </si>
   <si>
-    <t>Elite Knight</t>
+    <t>Knight</t>
   </si>
   <si>
     <t>80+</t>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -55,6 +55,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -78,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -87,6 +90,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -355,7 +361,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -367,10 +373,10 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>3.0</v>
       </c>
       <c r="G2" s="2"/>
@@ -454,7 +460,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>

--- a/5qemeister/scripts.xlsx
+++ b/5qemeister/scripts.xlsx
@@ -364,7 +364,7 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
